--- a/build/input/KoreaEuropeHFtrade.xlsx
+++ b/build/input/KoreaEuropeHFtrade.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hj/Documents/GitHub/JapanKoreaTradeConflict/build/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE3CFA1D-F17B-B044-AA7F-9E2B3982903E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3EDAB8-4A9E-C245-BFFC-BD77DDC358D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="-3720" windowWidth="25600" windowHeight="26560"/>
+    <workbookView xWindow="-25600" yWindow="-3720" windowWidth="25600" windowHeight="26560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KoreaNorthAmericaHFtrade" sheetId="1" r:id="rId1"/>
@@ -112,8 +112,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -272,12 +272,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF363636"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -711,17 +705,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1078,11 +1069,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D57" sqref="A33:D57"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1114,546 +1105,526 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>2021</v>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
         <v>2811111000</v>
       </c>
-      <c r="C2" s="3">
-        <v>27301</v>
-      </c>
-      <c r="D2" s="3">
-        <v>4001</v>
-      </c>
-      <c r="E2" s="3">
-        <v>12586</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15588</v>
+      </c>
+      <c r="F2" s="1">
+        <v>161.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2811111000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9206</v>
+      </c>
+      <c r="F3" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2811111000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>19285</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9975</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2811111000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>2811111000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>2811111000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>2811111000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>2811111000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>2811111000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2811111000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>2811111000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>2811111000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>474</v>
+      </c>
+      <c r="F13" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2811111000</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>15588</v>
-      </c>
-      <c r="F3" s="2">
-        <v>161.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>2811111000</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>9206</v>
-      </c>
-      <c r="F4" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>2811111000</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>19285</v>
-      </c>
-      <c r="F5" s="3">
-        <v>9975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>2811111000</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>2811111000</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>2811111000</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>2811111000</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>2811111000</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>2811111000</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>2811111000</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>2811111000</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-    </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>2811111000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1009</v>
+      </c>
+      <c r="F14" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>2811111000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>568</v>
+      </c>
+      <c r="F15" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>2811111000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1132</v>
+      </c>
+      <c r="F16" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>2811111000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1667</v>
+      </c>
+      <c r="F17" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>2811111000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1209</v>
+      </c>
+      <c r="F18" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>2811111000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>19999</v>
+      </c>
+      <c r="F19" s="2">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>2811111000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>950</v>
+      </c>
+      <c r="F20" s="1">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>2811111000</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>474</v>
-      </c>
-      <c r="F14" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>2811111000</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1009</v>
-      </c>
-      <c r="F15" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>2811111000</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>568</v>
-      </c>
-      <c r="F16" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>2811111000</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1132</v>
-      </c>
-      <c r="F17" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>2811111000</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1667</v>
-      </c>
-      <c r="F18" s="2">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>2811111000</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1209</v>
-      </c>
-      <c r="F19" s="2">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>2811111000</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>19999</v>
-      </c>
-      <c r="F20" s="3">
-        <v>15200</v>
-      </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
+      <c r="A21" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B21">
         <v>2811111000</v>
       </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>950</v>
-      </c>
-      <c r="F21" s="2">
-        <v>17</v>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
+      <c r="A22" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B22">
         <v>2811111000</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>2811111000</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="B29" s="2"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="B30" s="2"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="B31" s="2"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="B32" s="2"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="2"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="2"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="C51" s="2"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="C52" s="2"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="C53" s="2"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="C54" s="2"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="C55" s="2"/>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="C57" s="2"/>
+      <c r="C56" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
